--- a/docs/team-5-dev-status.xlsx
+++ b/docs/team-5-dev-status.xlsx
@@ -224,11 +224,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -237,7 +237,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -245,7 +245,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -253,14 +253,14 @@
       <b/>
       <sz val="13"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="13"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -268,13 +268,13 @@
       <b/>
       <sz val="13"/>
       <color rgb="FF24292E"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -339,7 +339,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -352,7 +352,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -640,17 +640,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="18" style="8" customWidth="1"/>
     <col min="2" max="2" width="52" style="10" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="44.625" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="44.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="18.75">
       <c r="A1" s="3" t="s">
         <v>65</v>
       </c>
@@ -661,7 +663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" s="6" customFormat="1" ht="51" customHeight="1">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -672,7 +674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="34.5">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -683,7 +685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" s="6" customFormat="1" ht="24.75" customHeight="1">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -694,7 +696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" s="6" customFormat="1" ht="24" customHeight="1">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -705,7 +707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" s="6" customFormat="1" ht="22.5" customHeight="1">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -716,7 +718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" s="6" customFormat="1" ht="34.5">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -727,7 +729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" s="6" customFormat="1" ht="28.5" customHeight="1">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -738,7 +740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" s="6" customFormat="1" ht="22.5" customHeight="1">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -749,7 +751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" s="6" customFormat="1" ht="21" customHeight="1">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -760,14 +762,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" s="6" customFormat="1" ht="21" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:3" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -778,24 +780,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="22.5" customHeight="1">
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="24.75" customHeight="1">
       <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="9"/>
     </row>
-    <row r="16" spans="1:3" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" s="1" customFormat="1" ht="26.25" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
@@ -806,7 +808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="22.5" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>7</v>
       </c>
@@ -817,7 +819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="32.25" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>9</v>
       </c>
@@ -828,7 +830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="33" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>11</v>
       </c>
@@ -839,7 +841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" s="1" customFormat="1" ht="24" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>13</v>
       </c>
@@ -850,12 +852,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="34.5">
       <c r="B21" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>15</v>
       </c>
@@ -866,30 +868,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="34.5">
       <c r="B23" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="34.5">
       <c r="B24" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="9"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4">
       <c r="B25" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="9"/>
     </row>
-    <row r="26" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="26.25" customHeight="1">
       <c r="B26" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="9"/>
     </row>
-    <row r="27" spans="1:4" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" s="1" customFormat="1" ht="26.25" customHeight="1">
       <c r="A27" s="5" t="s">
         <v>25</v>
       </c>
@@ -900,7 +902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
@@ -911,7 +913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" s="1" customFormat="1" ht="26.25" customHeight="1">
       <c r="A29" s="5" t="s">
         <v>29</v>
       </c>
@@ -922,7 +924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A30" s="5" t="s">
         <v>31</v>
       </c>
@@ -933,7 +935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="4" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" s="4" customFormat="1" ht="43.5" customHeight="1">
       <c r="A31" s="5" t="s">
         <v>33</v>
       </c>
@@ -941,13 +943,13 @@
         <v>34</v>
       </c>
       <c r="C31" s="9">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" s="2" customFormat="1" ht="22.5" customHeight="1">
       <c r="A32" s="5" t="s">
         <v>35</v>
       </c>
@@ -958,7 +960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="A33" s="5" t="s">
         <v>37</v>
       </c>
@@ -969,7 +971,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="A34" s="5" t="s">
         <v>39</v>
       </c>
@@ -980,7 +982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A35" s="5" t="s">
         <v>41</v>
       </c>
@@ -988,10 +990,10 @@
         <v>42</v>
       </c>
       <c r="C35" s="9">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1">
       <c r="A36" s="5" t="s">
         <v>43</v>
       </c>
@@ -1002,7 +1004,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" s="2" customFormat="1" ht="41.25" customHeight="1">
       <c r="A37" s="5" t="s">
         <v>45</v>
       </c>
@@ -1010,10 +1012,10 @@
         <v>46</v>
       </c>
       <c r="C37" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A38" s="5" t="s">
         <v>47</v>
       </c>
@@ -1024,7 +1026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" s="2" customFormat="1" ht="39.75" customHeight="1">
       <c r="A39" s="5" t="s">
         <v>49</v>
       </c>
@@ -1035,7 +1037,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A40" s="5" t="s">
         <v>52</v>
       </c>
@@ -1046,7 +1048,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" s="2" customFormat="1">
       <c r="A41" s="5" t="s">
         <v>53</v>
       </c>
@@ -1072,9 +1074,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1091,7 +1093,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1104,7 +1106,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
